--- a/Abritel_merged.xlsx
+++ b/Abritel_merged.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32498\Downloads\ECON2206-Data-Management-2023-main\GitHub\Project-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/819f983d14fae7de/Bureau/master aight/master 1/Q2/data management/chromedriver_win322/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E52315-028F-437B-98DA-43753469C34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{29E52315-028F-437B-98DA-43753469C34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDA0F09D-0867-4731-92ED-3A5168B90391}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2010,12 +2010,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2356,28 +2357,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K410" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L428" sqref="L428"/>
+    <sheetView tabSelected="1" topLeftCell="F119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2465,7 +2467,7 @@
         <v>2.6349599000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2509,7 +2511,7 @@
         <v>5.4932843</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2553,7 +2555,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2597,7 +2599,7 @@
         <v>3.2753481999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>4.3839451</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2685,7 +2687,7 @@
         <v>2.806352008124807</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>6.1258952999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2773,7 +2775,7 @@
         <v>5.5725547999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2817,7 +2819,7 @@
         <v>5.5725547999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2861,7 +2863,7 @@
         <v>5.5725547999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2905,7 +2907,7 @@
         <v>5.5680500999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2949,7 +2951,7 @@
         <v>5.6099389588302007</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2993,7 +2995,7 @@
         <v>4.3839451</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3037,7 +3039,7 @@
         <v>6.1224660999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3075,13 +3077,13 @@
         <v>438</v>
       </c>
       <c r="M16">
-        <v>44.3025594</v>
+        <v>50.192076700000001</v>
       </c>
       <c r="N16">
-        <v>0.86339310000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.8348478999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3125,7 +3127,7 @@
         <v>2.6022094</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>5.8702956999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3206,14 +3208,14 @@
       <c r="L19" t="s">
         <v>441</v>
       </c>
-      <c r="M19">
-        <v>52.204378499999997</v>
-      </c>
-      <c r="N19">
-        <v>6.8010450194042642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M19" s="2">
+        <v>51.222136800000001</v>
+      </c>
+      <c r="N19" s="2">
+        <v>4.4010201000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3251,13 +3253,13 @@
         <v>442</v>
       </c>
       <c r="M20">
-        <v>42.498275</v>
+        <v>50.715372700000003</v>
       </c>
       <c r="N20">
-        <v>-92.3328743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.3963669999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>4.6270287000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -3345,7 +3347,7 @@
         <v>5.5222220645873126</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3389,7 +3391,7 @@
         <v>3.2075610000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3433,7 +3435,7 @@
         <v>5.9713469000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -3471,13 +3473,13 @@
         <v>447</v>
       </c>
       <c r="M25">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N25">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3521,7 +3523,7 @@
         <v>4.8675579999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3565,7 +3567,7 @@
         <v>4.2118155177775538</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3609,7 +3611,7 @@
         <v>6.1143694000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -3653,7 +3655,7 @@
         <v>4.4238378999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3697,7 +3699,7 @@
         <v>2.6349599000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3741,7 +3743,7 @@
         <v>4.4270851999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3785,7 +3787,7 @@
         <v>3.2876314</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3829,7 +3831,7 @@
         <v>3.2876314</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3873,7 +3875,7 @@
         <v>3.2876314</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3917,7 +3919,7 @@
         <v>5.7248514999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>5.5595628000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -4005,7 +4007,7 @@
         <v>6.0549263</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -4049,7 +4051,7 @@
         <v>2.6349599000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -4093,7 +4095,7 @@
         <v>5.9611134000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -4137,7 +4139,7 @@
         <v>4.2386524704599031</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>5.1609064</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>5.4653273000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>5.8787387999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -4313,7 +4315,7 @@
         <v>2.7683368000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -4357,7 +4359,7 @@
         <v>5.5627594032134393</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>3.226772</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -4445,7 +4447,7 @@
         <v>3.3410210999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>2.7683368000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -4533,7 +4535,7 @@
         <v>2.7683368000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>4.5351806000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>6.1210763999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>4.3516969999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>2.6128803</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -4753,7 +4755,7 @@
         <v>2.6128803</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -4797,7 +4799,7 @@
         <v>4.4090394999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -4841,7 +4843,7 @@
         <v>3.090309</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -4885,7 +4887,7 @@
         <v>5.5725547999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -4923,13 +4925,13 @@
         <v>438</v>
       </c>
       <c r="M58">
-        <v>44.3025594</v>
+        <v>50.192497253417898</v>
       </c>
       <c r="N58">
-        <v>0.86339310000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.8345623016357404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>3.0975527999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -5017,7 +5019,7 @@
         <v>2.5811646406766329</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -5061,7 +5063,7 @@
         <v>3.9898688999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -5105,7 +5107,7 @@
         <v>2.7683368000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -5149,7 +5151,7 @@
         <v>5.9611134000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -5193,7 +5195,7 @@
         <v>3.2876314</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -5237,7 +5239,7 @@
         <v>5.5748498</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -5325,7 +5327,7 @@
         <v>2.6128803</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -5369,7 +5371,7 @@
         <v>5.2408137999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>3.19701661702454</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -5457,7 +5459,7 @@
         <v>4.7458219000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -5501,7 +5503,7 @@
         <v>4.6396987999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>4.4314089000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -5589,7 +5591,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -5633,7 +5635,7 @@
         <v>4.3997080999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -5677,7 +5679,7 @@
         <v>4.4278715999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -5721,7 +5723,7 @@
         <v>3.0244208000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>5.952833</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -5809,7 +5811,7 @@
         <v>5.952833</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -5853,7 +5855,7 @@
         <v>3.2730394958398432</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -5897,7 +5899,7 @@
         <v>3.2730394958398432</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -5985,7 +5987,7 @@
         <v>5.3720755000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -6029,7 +6031,7 @@
         <v>4.6270287000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -6073,7 +6075,7 @@
         <v>3.5833300000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>90</v>
       </c>
@@ -6117,7 +6119,7 @@
         <v>4.1360701999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -6161,7 +6163,7 @@
         <v>3.7250120999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -6205,7 +6207,7 @@
         <v>4.3997080999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -6249,7 +6251,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>94</v>
       </c>
@@ -6293,7 +6295,7 @@
         <v>4.877815</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>95</v>
       </c>
@@ -6337,7 +6339,7 @@
         <v>6.0933728</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -6381,7 +6383,7 @@
         <v>4.6978935000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>97</v>
       </c>
@@ -6425,7 +6427,7 @@
         <v>2.7683368000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -6469,7 +6471,7 @@
         <v>5.5842090999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>99</v>
       </c>
@@ -6513,7 +6515,7 @@
         <v>6.1645656999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>100</v>
       </c>
@@ -6557,7 +6559,7 @@
         <v>3.2876314</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>5.8585552999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -6645,7 +6647,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -6689,7 +6691,7 @@
         <v>3.1780189891578821</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -6733,7 +6735,7 @@
         <v>3.1780189891578821</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -6777,7 +6779,7 @@
         <v>4.0897899999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>3.2075610000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -6865,7 +6867,7 @@
         <v>3.3145415994965419</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -6909,7 +6911,7 @@
         <v>2.5811646406766329</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -6953,7 +6955,7 @@
         <v>2.6713825</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -6997,7 +6999,7 @@
         <v>2.7217946999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -7041,7 +7043,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -7085,7 +7087,7 @@
         <v>3.7250272999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -7129,7 +7131,7 @@
         <v>3.2075610000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -7173,7 +7175,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -7217,7 +7219,7 @@
         <v>4.8348478999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>4.8675024000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -7305,7 +7307,7 @@
         <v>3.19701661702454</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -7349,7 +7351,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -7393,7 +7395,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -7437,7 +7439,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -7481,7 +7483,7 @@
         <v>3.3087941000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -7525,7 +7527,7 @@
         <v>3.3087941000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -7569,7 +7571,7 @@
         <v>5.7173385999999997</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -7613,7 +7615,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -7657,7 +7659,7 @@
         <v>3.2847683081115022</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -7701,7 +7703,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -7745,7 +7747,7 @@
         <v>3.2876314</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -7789,7 +7791,7 @@
         <v>4.3471516000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -7833,7 +7835,7 @@
         <v>4.3691633999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -7877,7 +7879,7 @@
         <v>2.806352008124807</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -7921,7 +7923,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>3.5769479999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -8009,7 +8011,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -8053,7 +8055,7 @@
         <v>5.6893950000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -8097,7 +8099,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -8135,13 +8137,13 @@
         <v>447</v>
       </c>
       <c r="M131">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N131">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -8222,14 +8224,14 @@
       <c r="L133" t="s">
         <v>447</v>
       </c>
-      <c r="M133">
-        <v>50.1122874</v>
+      <c r="M133" s="3">
+        <v>51.225856499999999</v>
       </c>
       <c r="N133">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -8273,7 +8275,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -8311,13 +8313,13 @@
         <v>447</v>
       </c>
       <c r="M135">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N135">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -8355,13 +8357,13 @@
         <v>447</v>
       </c>
       <c r="M136">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N136">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -8405,7 +8407,7 @@
         <v>6.1222907431292697</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -8443,13 +8445,13 @@
         <v>514</v>
       </c>
       <c r="M138">
-        <v>41.186266000000003</v>
+        <v>51.1979207406185</v>
       </c>
       <c r="N138">
-        <v>-84.742993999999996</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.3902639983181402</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -8487,13 +8489,13 @@
         <v>447</v>
       </c>
       <c r="M139">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N139">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -8531,13 +8533,13 @@
         <v>447</v>
       </c>
       <c r="M140">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N140">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>137</v>
       </c>
@@ -8575,13 +8577,13 @@
         <v>447</v>
       </c>
       <c r="M141">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N141">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>138</v>
       </c>
@@ -8625,7 +8627,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>139</v>
       </c>
@@ -8669,7 +8671,7 @@
         <v>4.6937736000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>140</v>
       </c>
@@ -8713,7 +8715,7 @@
         <v>2.5811646406766329</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>141</v>
       </c>
@@ -8757,7 +8759,7 @@
         <v>4.7011675000000004</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>142</v>
       </c>
@@ -8801,7 +8803,7 @@
         <v>5.7242090304967101</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>143</v>
       </c>
@@ -8845,7 +8847,7 @@
         <v>2.806352008124807</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>144</v>
       </c>
@@ -8889,7 +8891,7 @@
         <v>5.3756511843457151</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>145</v>
       </c>
@@ -8933,7 +8935,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>146</v>
       </c>
@@ -8977,7 +8979,7 @@
         <v>5.4374175347489393</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>147</v>
       </c>
@@ -9021,7 +9023,7 @@
         <v>3.7291449000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>148</v>
       </c>
@@ -9065,7 +9067,7 @@
         <v>5.5249049000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -9109,7 +9111,7 @@
         <v>5.7252371999999996</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>150</v>
       </c>
@@ -9153,7 +9155,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>151</v>
       </c>
@@ -9197,7 +9199,7 @@
         <v>2.7281913169166851</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -9241,7 +9243,7 @@
         <v>3.2075610000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -9285,7 +9287,7 @@
         <v>5.5230607999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>154</v>
       </c>
@@ -9329,7 +9331,7 @@
         <v>5.3418985000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>155</v>
       </c>
@@ -9373,7 +9375,7 @@
         <v>5.5229647000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>156</v>
       </c>
@@ -9417,7 +9419,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>157</v>
       </c>
@@ -9461,7 +9463,7 @@
         <v>4.3581656841855603</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -9505,7 +9507,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>159</v>
       </c>
@@ -9549,7 +9551,7 @@
         <v>2.806352008124807</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>160</v>
       </c>
@@ -9593,7 +9595,7 @@
         <v>2.7281913169166851</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>161</v>
       </c>
@@ -9637,7 +9639,7 @@
         <v>5.4374175347489393</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>162</v>
       </c>
@@ -9681,7 +9683,7 @@
         <v>2.967770670276932</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>163</v>
       </c>
@@ -9725,7 +9727,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>164</v>
       </c>
@@ -9769,7 +9771,7 @@
         <v>3.6235392779588742</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>165</v>
       </c>
@@ -9813,7 +9815,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>166</v>
       </c>
@@ -9857,7 +9859,7 @@
         <v>2.5811646406766329</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>167</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>2.6713825</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>168</v>
       </c>
@@ -9945,7 +9947,7 @@
         <v>2.8520424000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>169</v>
       </c>
@@ -9982,14 +9984,14 @@
       <c r="L173" t="s">
         <v>531</v>
       </c>
-      <c r="M173">
-        <v>47.808000200000002</v>
+      <c r="M173" s="2">
+        <v>50.833114100000003</v>
       </c>
       <c r="N173">
-        <v>-0.59599899999999995</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.3668278999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>170</v>
       </c>
@@ -10033,7 +10035,7 @@
         <v>5.9162783000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>171</v>
       </c>
@@ -10077,7 +10079,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>172</v>
       </c>
@@ -10121,7 +10123,7 @@
         <v>5.8238358999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>173</v>
       </c>
@@ -10165,7 +10167,7 @@
         <v>5.5603020000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>174</v>
       </c>
@@ -10209,7 +10211,7 @@
         <v>4.9175573999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>175</v>
       </c>
@@ -10253,7 +10255,7 @@
         <v>5.5627594032134393</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>176</v>
       </c>
@@ -10297,7 +10299,7 @@
         <v>3.6583837090196858</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>177</v>
       </c>
@@ -10341,7 +10343,7 @@
         <v>6.1222907431292697</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>178</v>
       </c>
@@ -10385,7 +10387,7 @@
         <v>4.9002694</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>179</v>
       </c>
@@ -10429,7 +10431,7 @@
         <v>4.3454841000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>180</v>
       </c>
@@ -10473,7 +10475,7 @@
         <v>3.6992878999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>181</v>
       </c>
@@ -10517,7 +10519,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>182</v>
       </c>
@@ -10561,7 +10563,7 @@
         <v>3.19701661702454</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>183</v>
       </c>
@@ -10605,7 +10607,7 @@
         <v>4.4089887000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -10649,7 +10651,7 @@
         <v>5.9647525999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>185</v>
       </c>
@@ -10693,7 +10695,7 @@
         <v>2.6349599000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>186</v>
       </c>
@@ -10737,7 +10739,7 @@
         <v>3.2572642828960769</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>187</v>
       </c>
@@ -10781,7 +10783,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>187</v>
       </c>
@@ -10825,7 +10827,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>187</v>
       </c>
@@ -10869,7 +10871,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>188</v>
       </c>
@@ -10913,7 +10915,7 @@
         <v>2.806352008124807</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>189</v>
       </c>
@@ -10957,7 +10959,7 @@
         <v>3.19701661702454</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>190</v>
       </c>
@@ -11001,7 +11003,7 @@
         <v>5.6676137000000004</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>191</v>
       </c>
@@ -11045,7 +11047,7 @@
         <v>2.8476959000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>192</v>
       </c>
@@ -11089,7 +11091,7 @@
         <v>5.5531772000000004</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>193</v>
       </c>
@@ -11133,7 +11135,7 @@
         <v>4.8224303514181823</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>194</v>
       </c>
@@ -11177,7 +11179,7 @@
         <v>3.19701661702454</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>195</v>
       </c>
@@ -11221,7 +11223,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>196</v>
       </c>
@@ -11265,7 +11267,7 @@
         <v>4.2666710412975313</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>197</v>
       </c>
@@ -11309,7 +11311,7 @@
         <v>5.5627594032134393</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>198</v>
       </c>
@@ -11353,7 +11355,7 @@
         <v>4.3830846000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>198</v>
       </c>
@@ -11397,7 +11399,7 @@
         <v>4.3830846000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>199</v>
       </c>
@@ -11441,7 +11443,7 @@
         <v>6.2036220000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>199</v>
       </c>
@@ -11485,7 +11487,7 @@
         <v>6.2036220000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>200</v>
       </c>
@@ -11529,7 +11531,7 @@
         <v>4.3338444999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>201</v>
       </c>
@@ -11573,7 +11575,7 @@
         <v>5.4370891513615227</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>202</v>
       </c>
@@ -11617,7 +11619,7 @@
         <v>2.6548504704135789</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>203</v>
       </c>
@@ -11661,7 +11663,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>204</v>
       </c>
@@ -11705,7 +11707,7 @@
         <v>4.3469271999999997</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>205</v>
       </c>
@@ -11749,7 +11751,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>206</v>
       </c>
@@ -11793,7 +11795,7 @@
         <v>3.3410210999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>207</v>
       </c>
@@ -11837,7 +11839,7 @@
         <v>4.3469271999999997</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>208</v>
       </c>
@@ -11881,7 +11883,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>209</v>
       </c>
@@ -11925,7 +11927,7 @@
         <v>4.6030186999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>210</v>
       </c>
@@ -11969,7 +11971,7 @@
         <v>5.8037101</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>211</v>
       </c>
@@ -12013,7 +12015,7 @@
         <v>5.3100518000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>212</v>
       </c>
@@ -12057,7 +12059,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>213</v>
       </c>
@@ -12101,7 +12103,7 @@
         <v>3.0794343</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>214</v>
       </c>
@@ -12145,7 +12147,7 @@
         <v>5.0067044000000003</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>215</v>
       </c>
@@ -12189,7 +12191,7 @@
         <v>4.8224303514181823</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>216</v>
       </c>
@@ -12233,7 +12235,7 @@
         <v>3.0558728999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>217</v>
       </c>
@@ -12277,7 +12279,7 @@
         <v>2.806352008124807</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>218</v>
       </c>
@@ -12321,7 +12323,7 @@
         <v>6.0312716999999996</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>219</v>
       </c>
@@ -12365,7 +12367,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>220</v>
       </c>
@@ -12409,7 +12411,7 @@
         <v>5.7886927999999997</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>221</v>
       </c>
@@ -12453,7 +12455,7 @@
         <v>5.6624968999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>222</v>
       </c>
@@ -12497,7 +12499,7 @@
         <v>5.3212256980329196</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>223</v>
       </c>
@@ -12541,7 +12543,7 @@
         <v>5.2510384999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>224</v>
       </c>
@@ -12585,7 +12587,7 @@
         <v>5.7921557999999997</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>225</v>
       </c>
@@ -12629,7 +12631,7 @@
         <v>5.4932843</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>226</v>
       </c>
@@ -12673,7 +12675,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>227</v>
       </c>
@@ -12717,7 +12719,7 @@
         <v>5.9879371007925073</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>228</v>
       </c>
@@ -12761,7 +12763,7 @@
         <v>5.7229815999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>229</v>
       </c>
@@ -12799,13 +12801,13 @@
         <v>568</v>
       </c>
       <c r="M237">
-        <v>36.793693249999997</v>
+        <v>50.393365000000003</v>
       </c>
       <c r="N237">
-        <v>27.08482656287822</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5.8695735000000004</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>230</v>
       </c>
@@ -12849,7 +12851,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>230</v>
       </c>
@@ -12893,7 +12895,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>230</v>
       </c>
@@ -12937,7 +12939,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>230</v>
       </c>
@@ -12981,7 +12983,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>231</v>
       </c>
@@ -13025,7 +13027,7 @@
         <v>3.2075610000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>232</v>
       </c>
@@ -13063,13 +13065,13 @@
         <v>447</v>
       </c>
       <c r="M243">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N243">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>232</v>
       </c>
@@ -13113,7 +13115,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>232</v>
       </c>
@@ -13151,13 +13153,13 @@
         <v>447</v>
       </c>
       <c r="M245">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N245">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>232</v>
       </c>
@@ -13201,7 +13203,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>232</v>
       </c>
@@ -13239,13 +13241,13 @@
         <v>447</v>
       </c>
       <c r="M247">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N247">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>232</v>
       </c>
@@ -13289,7 +13291,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>233</v>
       </c>
@@ -13333,7 +13335,7 @@
         <v>2.9200189999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>234</v>
       </c>
@@ -13377,7 +13379,7 @@
         <v>4.3471516000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>235</v>
       </c>
@@ -13421,7 +13423,7 @@
         <v>2.8803139</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>236</v>
       </c>
@@ -13465,7 +13467,7 @@
         <v>4.3532210312380109</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>237</v>
       </c>
@@ -13509,7 +13511,7 @@
         <v>5.6866728000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>238</v>
       </c>
@@ -13553,7 +13555,7 @@
         <v>4.3557220000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>239</v>
       </c>
@@ -13597,7 +13599,7 @@
         <v>2.6128803</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>240</v>
       </c>
@@ -13641,7 +13643,7 @@
         <v>3.0794343</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>241</v>
       </c>
@@ -13685,7 +13687,7 @@
         <v>5.5185152000000004</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>242</v>
       </c>
@@ -13729,7 +13731,7 @@
         <v>4.3446281999999998</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>243</v>
       </c>
@@ -13766,14 +13768,14 @@
       <c r="L259" t="s">
         <v>576</v>
       </c>
-      <c r="M259">
-        <v>43.494530599999997</v>
+      <c r="M259" s="2">
+        <v>49.795671119180298</v>
       </c>
       <c r="N259">
-        <v>-0.49814649999999999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5.0756365641793</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>244</v>
       </c>
@@ -13817,7 +13819,7 @@
         <v>5.9611134000000003</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>245</v>
       </c>
@@ -13855,13 +13857,13 @@
         <v>447</v>
       </c>
       <c r="M261">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N261">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>246</v>
       </c>
@@ -13905,7 +13907,7 @@
         <v>4.3532210312380109</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>247</v>
       </c>
@@ -13949,7 +13951,7 @@
         <v>5.3212256980329196</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>248</v>
       </c>
@@ -13993,7 +13995,7 @@
         <v>4.6829216999999996</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>249</v>
       </c>
@@ -14037,7 +14039,7 @@
         <v>3.2730394958398432</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>250</v>
       </c>
@@ -14081,7 +14083,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>251</v>
       </c>
@@ -14125,7 +14127,7 @@
         <v>6.0816970000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>252</v>
       </c>
@@ -14169,7 +14171,7 @@
         <v>6.2578269999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>253</v>
       </c>
@@ -14213,7 +14215,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>254</v>
       </c>
@@ -14257,7 +14259,7 @@
         <v>4.3454841000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>255</v>
       </c>
@@ -14301,7 +14303,7 @@
         <v>3.3087941000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>256</v>
       </c>
@@ -14345,7 +14347,7 @@
         <v>2.7683368000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>257</v>
       </c>
@@ -14389,7 +14391,7 @@
         <v>2.6022094</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>258</v>
       </c>
@@ -14433,7 +14435,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>259</v>
       </c>
@@ -14477,7 +14479,7 @@
         <v>2.8914736832758958</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>260</v>
       </c>
@@ -14521,7 +14523,7 @@
         <v>5.1877385</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>261</v>
       </c>
@@ -14565,7 +14567,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>262</v>
       </c>
@@ -14609,7 +14611,7 @@
         <v>5.4374175347489393</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>263</v>
       </c>
@@ -14653,7 +14655,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>264</v>
       </c>
@@ -14691,13 +14693,13 @@
         <v>447</v>
       </c>
       <c r="M280">
-        <v>50.1122874</v>
+        <v>51.225856499999999</v>
       </c>
       <c r="N280">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.9194960000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>265</v>
       </c>
@@ -14741,7 +14743,7 @@
         <v>2.806352008124807</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>266</v>
       </c>
@@ -14785,7 +14787,7 @@
         <v>4.4955008999999997</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>267</v>
       </c>
@@ -14829,7 +14831,7 @@
         <v>2.9809192000000002</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>268</v>
       </c>
@@ -14873,7 +14875,7 @@
         <v>3.7291449000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>269</v>
       </c>
@@ -14917,7 +14919,7 @@
         <v>3.0558728999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>270</v>
       </c>
@@ -14961,7 +14963,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>270</v>
       </c>
@@ -15005,7 +15007,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>270</v>
       </c>
@@ -15049,7 +15051,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>271</v>
       </c>
@@ -15093,7 +15095,7 @@
         <v>3.7250272999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>272</v>
       </c>
@@ -15137,7 +15139,7 @@
         <v>4.3516969999999997</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>273</v>
       </c>
@@ -15181,7 +15183,7 @@
         <v>4.9726784000000004</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>274</v>
       </c>
@@ -15225,7 +15227,7 @@
         <v>4.3963669999999997</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>275</v>
       </c>
@@ -15269,7 +15271,7 @@
         <v>3.2572642828960769</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>276</v>
       </c>
@@ -15313,7 +15315,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>277</v>
       </c>
@@ -15357,7 +15359,7 @@
         <v>5.6394827999999997</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>278</v>
       </c>
@@ -15394,14 +15396,14 @@
       <c r="L296" t="s">
         <v>447</v>
       </c>
-      <c r="M296">
-        <v>50.1122874</v>
-      </c>
-      <c r="N296">
-        <v>8.707016525320828</v>
-      </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M296" s="2">
+        <v>51.225856499999999</v>
+      </c>
+      <c r="N296" s="2">
+        <v>2919496</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>279</v>
       </c>
@@ -15445,7 +15447,7 @@
         <v>2.7683368000000002</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>280</v>
       </c>
@@ -15489,7 +15491,7 @@
         <v>3.0558728999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>281</v>
       </c>
@@ -15533,7 +15535,7 @@
         <v>2.806352008124807</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>282</v>
       </c>
@@ -15577,7 +15579,7 @@
         <v>5.4909772496262583</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>283</v>
       </c>
@@ -15621,7 +15623,7 @@
         <v>3.2753481999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>284</v>
       </c>
@@ -15665,7 +15667,7 @@
         <v>5.6140262999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>285</v>
       </c>
@@ -15709,7 +15711,7 @@
         <v>2.5811646406766329</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>286</v>
       </c>
@@ -15753,7 +15755,7 @@
         <v>2.6812656000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>287</v>
       </c>
@@ -15797,7 +15799,7 @@
         <v>3.0558728999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>288</v>
       </c>
@@ -15841,7 +15843,7 @@
         <v>2.6713825</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>289</v>
       </c>
@@ -15885,7 +15887,7 @@
         <v>5.5627594032134393</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>290</v>
       </c>
@@ -15929,7 +15931,7 @@
         <v>4.7055271000000003</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>291</v>
       </c>
@@ -15973,7 +15975,7 @@
         <v>5.5595628000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>292</v>
       </c>
@@ -16017,7 +16019,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>293</v>
       </c>
@@ -16061,7 +16063,7 @@
         <v>5.4350576999999998</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>294</v>
       </c>
@@ -16105,7 +16107,7 @@
         <v>4.3997080999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>295</v>
       </c>
@@ -16149,7 +16151,7 @@
         <v>4.8984129000000003</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>296</v>
       </c>
@@ -16193,7 +16195,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>297</v>
       </c>
@@ -16237,7 +16239,7 @@
         <v>4.4462406000000003</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>298</v>
       </c>
@@ -16281,7 +16283,7 @@
         <v>4.7023497000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>299</v>
       </c>
@@ -16325,7 +16327,7 @@
         <v>5.7052955000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>300</v>
       </c>
@@ -16369,7 +16371,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>301</v>
       </c>
@@ -16413,7 +16415,7 @@
         <v>4.3985095999999997</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>302</v>
       </c>
@@ -16457,7 +16459,7 @@
         <v>5.6333299999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>303</v>
       </c>
@@ -16501,7 +16503,7 @@
         <v>4.4039726000000003</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>304</v>
       </c>
@@ -16545,7 +16547,7 @@
         <v>6.0276059000000002</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>305</v>
       </c>
@@ -16589,7 +16591,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>306</v>
       </c>
@@ -16633,7 +16635,7 @@
         <v>3.2625765000000002</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>307</v>
       </c>
@@ -16671,13 +16673,13 @@
         <v>514</v>
       </c>
       <c r="M325">
-        <v>41.186266000000003</v>
+        <v>51.197961078798002</v>
       </c>
       <c r="N325">
-        <v>-84.742993999999996</v>
-      </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.3901781676295304</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>307</v>
       </c>
@@ -16715,13 +16717,13 @@
         <v>514</v>
       </c>
       <c r="M326">
-        <v>41.186266000000003</v>
+        <v>51.197961078798002</v>
       </c>
       <c r="N326">
-        <v>-84.742993999999996</v>
-      </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.3901781676295304</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>307</v>
       </c>
@@ -16759,13 +16761,13 @@
         <v>514</v>
       </c>
       <c r="M327">
-        <v>41.186266000000003</v>
+        <v>51.197961078798002</v>
       </c>
       <c r="N327">
-        <v>-84.742993999999996</v>
-      </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.3901781676295304</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>308</v>
       </c>
@@ -16809,7 +16811,7 @@
         <v>2.8914737000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>309</v>
       </c>
@@ -16853,7 +16855,7 @@
         <v>5.26393943423483</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>310</v>
       </c>
@@ -16897,7 +16899,7 @@
         <v>3.2625765000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>311</v>
       </c>
@@ -16941,7 +16943,7 @@
         <v>5.695354</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>312</v>
       </c>
@@ -16985,7 +16987,7 @@
         <v>5.1601828000000003</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>313</v>
       </c>
@@ -17029,7 +17031,7 @@
         <v>3.2075610000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>314</v>
       </c>
@@ -17073,7 +17075,7 @@
         <v>4.5342675000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>315</v>
       </c>
@@ -17117,7 +17119,7 @@
         <v>2.8623547999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>316</v>
       </c>
@@ -17161,7 +17163,7 @@
         <v>4.3830846000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>317</v>
       </c>
@@ -17205,7 +17207,7 @@
         <v>5.5597642</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>318</v>
       </c>
@@ -17249,7 +17251,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>319</v>
       </c>
@@ -17293,7 +17295,7 @@
         <v>4.3454841000000002</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>320</v>
       </c>
@@ -17337,7 +17339,7 @@
         <v>2.5811646406766329</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>321</v>
       </c>
@@ -17381,7 +17383,7 @@
         <v>5.0001068999999996</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>322</v>
       </c>
@@ -17425,7 +17427,7 @@
         <v>4.2637077000000003</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>323</v>
       </c>
@@ -17469,7 +17471,7 @@
         <v>3.2399794000000002</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>324</v>
       </c>
@@ -17513,7 +17515,7 @@
         <v>2.7683368000000002</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>325</v>
       </c>
@@ -17557,7 +17559,7 @@
         <v>4.8376251000000003</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>326</v>
       </c>
@@ -17601,7 +17603,7 @@
         <v>2.6022094</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>327</v>
       </c>
@@ -17645,7 +17647,7 @@
         <v>5.2955034999999997</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>328</v>
       </c>
@@ -17689,7 +17691,7 @@
         <v>5.6528207000000004</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>329</v>
       </c>
@@ -17727,13 +17729,13 @@
         <v>576</v>
       </c>
       <c r="M349">
-        <v>43.494530599999997</v>
+        <v>49.795671119180298</v>
       </c>
       <c r="N349">
-        <v>-0.49814649999999999</v>
-      </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5.0756365641793</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>330</v>
       </c>
@@ -17777,7 +17779,7 @@
         <v>4.3668278999999997</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>331</v>
       </c>
@@ -17821,7 +17823,7 @@
         <v>5.1752821999999998</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>332</v>
       </c>
@@ -17859,13 +17861,13 @@
         <v>617</v>
       </c>
       <c r="M352">
-        <v>41.684671999999999</v>
-      </c>
-      <c r="N352">
-        <v>14.595613999999999</v>
-      </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
+        <v>51.184042099999999</v>
+      </c>
+      <c r="N352" s="2">
+        <v>51155267</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>333</v>
       </c>
@@ -17909,7 +17911,7 @@
         <v>5.5597642</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>334</v>
       </c>
@@ -17953,7 +17955,7 @@
         <v>4.4462406000000003</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>335</v>
       </c>
@@ -17997,7 +17999,7 @@
         <v>5.9952709000000004</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>336</v>
       </c>
@@ -18041,7 +18043,7 @@
         <v>5.1155267000000002</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>337</v>
       </c>
@@ -18085,7 +18087,7 @@
         <v>6.1645656999999998</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>338</v>
       </c>
@@ -18129,7 +18131,7 @@
         <v>4.4040642999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>339</v>
       </c>
@@ -18173,7 +18175,7 @@
         <v>5.8352989636035817</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>340</v>
       </c>
@@ -18217,7 +18219,7 @@
         <v>5.8809281000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>341</v>
       </c>
@@ -18261,7 +18263,7 @@
         <v>5.1008664000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>342</v>
       </c>
@@ -18305,7 +18307,7 @@
         <v>4.3668278999999997</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>343</v>
       </c>
@@ -18349,7 +18351,7 @@
         <v>2.806352008124807</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>344</v>
       </c>
@@ -18393,7 +18395,7 @@
         <v>5.4932843</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>345</v>
       </c>
@@ -18437,7 +18439,7 @@
         <v>5.3724637</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>346</v>
       </c>
@@ -18481,7 +18483,7 @@
         <v>5.4639172</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>347</v>
       </c>
@@ -18525,7 +18527,7 @@
         <v>5.0067044000000003</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>348</v>
       </c>
@@ -18569,7 +18571,7 @@
         <v>3.2625765000000002</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>349</v>
       </c>
@@ -18613,7 +18615,7 @@
         <v>3.6942082437481729</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>350</v>
       </c>
@@ -18657,7 +18659,7 @@
         <v>5.3720755000000002</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>351</v>
       </c>
@@ -18701,7 +18703,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>352</v>
       </c>
@@ -18745,7 +18747,7 @@
         <v>5.3786953999999998</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>353</v>
       </c>
@@ -18789,7 +18791,7 @@
         <v>5.9952709000000004</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>354</v>
       </c>
@@ -18833,7 +18835,7 @@
         <v>5.8675389999999998</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>355</v>
       </c>
@@ -18877,7 +18879,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>356</v>
       </c>
@@ -18915,13 +18917,13 @@
         <v>628</v>
       </c>
       <c r="M376">
-        <v>31.775353899999999</v>
+        <v>51.215077102866204</v>
       </c>
       <c r="N376">
-        <v>35.2317629</v>
-      </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.4188482774167896</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>357</v>
       </c>
@@ -18965,7 +18967,7 @@
         <v>4.9340633</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>358</v>
       </c>
@@ -19009,7 +19011,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>359</v>
       </c>
@@ -19053,7 +19055,7 @@
         <v>4.3446281999999998</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>360</v>
       </c>
@@ -19097,7 +19099,7 @@
         <v>2.9724492877781259</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>361</v>
       </c>
@@ -19141,7 +19143,7 @@
         <v>2.9194960000000001</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>362</v>
       </c>
@@ -19185,7 +19187,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>363</v>
       </c>
@@ -19229,7 +19231,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>364</v>
       </c>
@@ -19273,7 +19275,7 @@
         <v>5.6761461999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>365</v>
       </c>
@@ -19317,7 +19319,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>366</v>
       </c>
@@ -19361,7 +19363,7 @@
         <v>3.2876314</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>367</v>
       </c>
@@ -19405,7 +19407,7 @@
         <v>3.6942082437481729</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>368</v>
       </c>
@@ -19449,7 +19451,7 @@
         <v>3.3878178999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>369</v>
       </c>
@@ -19493,7 +19495,7 @@
         <v>4.8224303514181823</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>370</v>
       </c>
@@ -19537,7 +19539,7 @@
         <v>3.226772</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>371</v>
       </c>
@@ -19581,7 +19583,7 @@
         <v>2.806352008124807</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>372</v>
       </c>
@@ -19625,7 +19627,7 @@
         <v>5.3720755000000002</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>373</v>
       </c>
@@ -19669,7 +19671,7 @@
         <v>3.2876314</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>374</v>
       </c>
@@ -19713,7 +19715,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>375</v>
       </c>
@@ -19757,7 +19759,7 @@
         <v>5.1843769122315697</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>376</v>
       </c>
@@ -19801,7 +19803,7 @@
         <v>3.2753481999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>377</v>
       </c>
@@ -19845,7 +19847,7 @@
         <v>3.2876314</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>378</v>
       </c>
@@ -19889,7 +19891,7 @@
         <v>5.9162783000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>379</v>
       </c>
@@ -19933,7 +19935,7 @@
         <v>4.3386360000000002</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>380</v>
       </c>
@@ -19977,7 +19979,7 @@
         <v>2.6349599000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>381</v>
       </c>
@@ -20021,7 +20023,7 @@
         <v>4.4730008000000003</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>382</v>
       </c>
@@ -20065,7 +20067,7 @@
         <v>3.226772</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>383</v>
       </c>
@@ -20109,7 +20111,7 @@
         <v>4.3997080999999998</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>384</v>
       </c>
@@ -20153,7 +20155,7 @@
         <v>3.133658034483461</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>385</v>
       </c>
@@ -20197,7 +20199,7 @@
         <v>5.9428000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>386</v>
       </c>
@@ -20241,7 +20243,7 @@
         <v>4.3582301000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>387</v>
       </c>
@@ -20285,7 +20287,7 @@
         <v>5.2395800000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>388</v>
       </c>
@@ -20329,7 +20331,7 @@
         <v>6.1222907431292697</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>389</v>
       </c>
@@ -20373,7 +20375,7 @@
         <v>3.0238828</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>390</v>
       </c>
@@ -20417,7 +20419,7 @@
         <v>3.3878178999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>391</v>
       </c>
@@ -20461,7 +20463,7 @@
         <v>5.4909772496262583</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>392</v>
       </c>
@@ -20502,10 +20504,10 @@
         <v>49.794983600000002</v>
       </c>
       <c r="N412" s="2">
-        <v>50.672528</v>
-      </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5.0756365641793</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>393</v>
       </c>
@@ -20549,7 +20551,7 @@
         <v>4.9903187000000004</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>394</v>
       </c>
@@ -20593,7 +20595,7 @@
         <v>3.1780189891578821</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>395</v>
       </c>
@@ -20637,7 +20639,7 @@
         <v>6.0133409999999996</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>396</v>
       </c>
@@ -20681,7 +20683,7 @@
         <v>6.0312716999999996</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>397</v>
       </c>
@@ -20725,7 +20727,7 @@
         <v>5.8441860999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>398</v>
       </c>
@@ -20769,7 +20771,7 @@
         <v>2.7568758999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>399</v>
       </c>
@@ -20813,7 +20815,7 @@
         <v>4.1360701999999998</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>400</v>
       </c>
@@ -20857,7 +20859,7 @@
         <v>6.0312716999999996</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>401</v>
       </c>
@@ -20901,7 +20903,7 @@
         <v>3.1780189891578821</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>402</v>
       </c>
@@ -20945,7 +20947,7 @@
         <v>2.6812656000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>403</v>
       </c>
@@ -20989,7 +20991,7 @@
         <v>4.3737120999999997</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>404</v>
       </c>
